--- a/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>18,827.68</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20,306.29</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21,019.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21,804.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>22,513.98</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21,804.69</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21,019.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20,306.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>18,827.68</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>22513.98</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>18827.68</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>20894.426</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>5,042.24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5,319.01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5,046.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5,247.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>5,091.69</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5,247.79</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5,046.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5,319.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5,042.24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>5319.01</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>5042.24</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>5149.530000000001</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>175.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>416.42</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>175.20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>111.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>416.42</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>93.58</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>178.988</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>236.06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>166.72</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>155.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>163.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>144.19</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>163.91</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>155.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>166.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>236.06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>236.06</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>144.19</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>173.244</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>4,015.59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4,921.01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4,871.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4,970.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>5,588.72</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4,970.25</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4,871.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4,921.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4,015.59</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>5588.72</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>4015.59</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>4873.356</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>12,436.15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13,313.51</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13,243.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14,097.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>14,651.24</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14,097.34</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13,243.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>13,313.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>12,436.15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>14651.24</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>12436.15</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>13548.4</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,909.21</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,967.64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,074.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,217.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,355.07</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,217.38</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,074.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,967.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,909.21</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2355.07</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1909.21</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2104.74</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,389.84</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4,751.70</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,042.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,899.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>5,050.61</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,899.88</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5,042.70</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4,751.70</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,389.84</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5050.61</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>4389.84</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>4826.946</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>9,479.95</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10,778.42</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10,843.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11,147.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>11,698.08</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>11,147.24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10,843.60</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10,778.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9,479.95</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>11698.08</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>9479.950000000001</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>10789.458</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,819.96</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,211.53</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,889.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,613.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,700.68</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,613.66</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,889.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,211.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,819.96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2700.68</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1819.96</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2247.01</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>7,659.99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,566.89</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8,954.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8,533.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>8,997.40</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8,533.58</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8,954.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8,566.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7,659.99</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>8997.4</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>7659.99</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>8542.448</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,654.26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,981.04</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,069.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,965.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,652.41</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,965.42</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,069.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,981.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,654.26</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3069.26</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2652.41</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2864.478</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>5,005.73</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5,585.85</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,885.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5,568.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>6,344.99</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5,568.16</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5,885.12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5,585.85</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5,005.73</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>6344.99</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>5005.73</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>5677.969999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>5,005.73</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5,585.85</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5,885.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5,568.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>6,344.99</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5,568.16</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5,885.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5,585.85</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5,005.73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>6344.99</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>5005.73</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>5677.969999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>543.44</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>543.90</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>544.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>546.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>547.08</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>546.56</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>544.66</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>543.90</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>543.44</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>547.08</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>543.4400000000001</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>545.1279999999999</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>11.60</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>18.58</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>11.50</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20.20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>18.4</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>11.60</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>18.58</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>11.50</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20.20</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>18.4</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>10,097.73</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10,902.86</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11,224.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11,768.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>12,508.15</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>11,768.95</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>11,224.16</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>10,902.86</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>10,097.73</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>12508.15</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>10097.73</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>11300.37</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>3,028.24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3,301.54</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3,214.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3,567.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>3,790.95</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3,567.18</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3,214.52</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3,301.54</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3,028.24</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>3790.95</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>3028.24</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>3380.486</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1.37</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>0.42</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>0.42</t>
         </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.412</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.484</v>
       </c>
     </row>
     <row r="38"/>
@@ -1568,37 +1329,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>201809</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>201812</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>201909</t>
         </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>201906</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>201903</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>201812</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>201809</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>201909</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>201809</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>201867.8</v>
       </c>
     </row>
   </sheetData>
